--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/3 克雷研究所.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/3 克雷研究所.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" tabRatio="928"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maze3_part0" sheetId="19" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="56">
   <si>
     <t>说明</t>
   </si>
@@ -341,22 +341,25 @@
     <t>duheng</t>
   </si>
   <si>
-    <t>恭喜你带领小队出色地完成了第一次共生型异质物的收容任务。</t>
+    <t>{#杜衡紧张动作}恭喜你带领小队出色地完成了第一次共生型异质物的收容任务。</t>
   </si>
   <si>
     <t>下一个巢点在克雷研究所。克雷博士所在的异质物研究所原本就是我们昭离公馆稳定的合作对象。</t>
   </si>
   <si>
-    <t>克雷博士在共生型异质物的研究方面造诣很深，但因为一次事故，让那里变成了巢。</t>
-  </si>
-  <si>
-    <t>克雷博士也在那次事故中失踪……目前已经被认定为死亡了。</t>
+    <t>{#杜衡紧张动作恢复}克雷博士在共生型异质物的研究方面造诣很深，但因为一次事故，让那里变成了巢。</t>
+  </si>
+  <si>
+    <t>{#杜衡惊讶动作}克雷博士也在那次事故中失踪……目前已经被认定为死亡了。</t>
   </si>
   <si>
     <t>这次克雷研究所的收容任务，就交给你了。</t>
   </si>
   <si>
-    <t>另外，昭离公馆对共生型异质物的需求是源源不断的。当你觉得队伍需要提升又摸不着头脑的时候，补充共生型异质物总会是个好选择。</t>
+    <t>{#杜衡惊讶动作恢复}另外，昭离公馆对共生型异质物的需求是源源不断的。当你觉得队伍需要提升又摸不着头脑的时候，</t>
+  </si>
+  <si>
+    <t>补充共生型异质物总会是个好选择。</t>
   </si>
   <si>
     <t>{music=off}</t>
@@ -377,7 +380,7 @@
     <t>pos=中</t>
   </si>
   <si>
-    <t>这样的环境，真让人不舒服……</t>
+    <t>{#凯瑟琳2紧张动作}{#凯瑟琳2紧张表情}这样的环境，真让人不舒服……</t>
   </si>
   <si>
     <t>tuling</t>
@@ -386,7 +389,7 @@
     <t>pos=右</t>
   </si>
   <si>
-    <t>不知道这里以前是什么样子呢？</t>
+    <t>{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情}{#涂凌思考动作}不知道这里以前是什么样子呢？</t>
   </si>
   <si>
     <t>我们进去看看吧。</t>
@@ -395,7 +398,7 @@
     <t>niefei</t>
   </si>
   <si>
-    <t>面前就有一个敌人！干他！</t>
+    <t>{#聂飞军体拳}面前就有一个敌人！干他！</t>
   </si>
   <si>
     <t>是否回到研究室？</t>
@@ -405,6 +408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>$$</t>
     </r>
     <r>
@@ -1692,10 +1701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1742,25 +1751,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
-        <f ca="1">INDEX($D$5:$D$798,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+      <c r="D2" s="14">
+        <f ca="1">INDEX($D$5:$D$799,CELL("row")-4)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A20" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="40"/>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="40"/>
@@ -1885,7 +1894,7 @@
     </row>
     <row r="8" s="3" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="40"/>
@@ -1904,7 +1913,7 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A9" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1919,7 +1928,7 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A10" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="5"/>
@@ -1938,7 +1947,7 @@
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A11" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="10"/>
@@ -1949,7 +1958,7 @@
       <c r="E11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="9"/>
@@ -1957,7 +1966,7 @@
     </row>
     <row r="12" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A12" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="10"/>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A13" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A14" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="10"/>
@@ -2014,7 +2023,7 @@
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A15" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="10"/>
@@ -2033,7 +2042,7 @@
     </row>
     <row r="16" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="10"/>
@@ -2052,7 +2061,7 @@
     </row>
     <row r="17" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="10"/>
@@ -2060,31 +2069,31 @@
       <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="9"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A18" s="27">
         <f>ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A19" s="27">
@@ -2097,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -2116,7 +2125,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -2126,42 +2135,48 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A21" s="27">
-        <f t="shared" ref="A21:A36" si="0">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>15</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A22" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A22:A37" si="1">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A23" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2171,7 +2186,7 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A24" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B24" s="5"/>
@@ -2182,9 +2197,9 @@
       <c r="G24" s="6"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A25" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
@@ -2195,9 +2210,9 @@
       <c r="G25" s="6"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="26" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B26" s="5"/>
@@ -2210,7 +2225,7 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A27" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B27" s="5"/>
@@ -2223,7 +2238,7 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A28" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B28" s="5"/>
@@ -2236,7 +2251,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A29" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B29" s="5"/>
@@ -2247,9 +2262,9 @@
       <c r="G29" s="6"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A30" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B30" s="5"/>
@@ -2260,9 +2275,9 @@
       <c r="G30" s="6"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="31" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A31" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B31" s="5"/>
@@ -2275,7 +2290,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A32" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B32" s="5"/>
@@ -2288,7 +2303,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A33" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B33" s="5"/>
@@ -2301,42 +2316,55 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A34" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6"/>
       <c r="J36" s="8"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A37" s="27">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6"/>
+      <c r="J37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2350,10 +2378,10 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2400,25 +2428,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$790,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -2506,7 +2534,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="27">
-        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A13" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2538,13 +2566,13 @@
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
       <c r="D8" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="38"/>
@@ -2561,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
@@ -2577,13 +2605,13 @@
       <c r="B10" s="35"/>
       <c r="C10" s="34"/>
       <c r="D10" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="38"/>
@@ -2600,10 +2628,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="32"/>
@@ -2619,24 +2647,24 @@
         <v>28</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9"/>
       <c r="J12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -2645,7 +2673,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
@@ -2747,13 +2775,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2800,25 +2828,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -2938,13 +2966,13 @@
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
       <c r="D8" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="38"/>
@@ -2961,10 +2989,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
@@ -2975,10 +3003,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2987,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
@@ -3140,25 +3168,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$790,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -3289,7 +3317,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="32"/>
@@ -3302,11 +3330,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
@@ -3323,7 +3351,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="32"/>
@@ -3334,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5"/>
       <c r="F11" s="7"/>
@@ -3349,10 +3377,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -3366,11 +3394,11 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="6"/>
       <c r="J13" s="8"/>
@@ -3381,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
